--- a/output/0/tRNA-Gly-GCC-2-2.xlsx
+++ b/output/0/tRNA-Gly-GCC-2-2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="83">
   <si>
     <t>chr2</t>
   </si>
@@ -261,126 +261,6 @@
   </si>
   <si>
     <t>89</t>
-  </si>
-  <si>
-    <t>157258041</t>
-  </si>
-  <si>
-    <t>157258064</t>
-  </si>
-  <si>
-    <t>157258044</t>
-  </si>
-  <si>
-    <t>80,80,80</t>
-  </si>
-  <si>
-    <t>TAAAAGAAAAAAATGGCAGG</t>
-  </si>
-  <si>
-    <t>94% (66)</t>
-  </si>
-  <si>
-    <t>48% (44)</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 0, Doench 2016: 94%, Moreno-Mateos: 48%</t>
-  </si>
-  <si>
-    <t>157258042</t>
-  </si>
-  <si>
-    <t>157258065</t>
-  </si>
-  <si>
-    <t>157258045</t>
-  </si>
-  <si>
-    <t>ATAAAAGAAAAAAATGGCAG</t>
-  </si>
-  <si>
-    <t>43% (48)</t>
-  </si>
-  <si>
-    <t>11% (23)</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 0, Doench 2016: 43%, Moreno-Mateos: 11%</t>
-  </si>
-  <si>
-    <t>157258043</t>
-  </si>
-  <si>
-    <t>157258066</t>
-  </si>
-  <si>
-    <t>157258046</t>
-  </si>
-  <si>
-    <t>AATAAAAGAAAAAAATGGCA</t>
-  </si>
-  <si>
-    <t>66% (55)</t>
-  </si>
-  <si>
-    <t>6% (18)</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 0, Doench 2016: 66%, Moreno-Mateos: 6%</t>
-  </si>
-  <si>
-    <t>157258067</t>
-  </si>
-  <si>
-    <t>157258047</t>
-  </si>
-  <si>
-    <t>TAATAAAAGAAAAAAATGGC</t>
-  </si>
-  <si>
-    <t>56% (52)</t>
-  </si>
-  <si>
-    <t>0% (0)</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 0, Doench 2016: 56%, Moreno-Mateos: 0%</t>
-  </si>
-  <si>
-    <t>157258048</t>
-  </si>
-  <si>
-    <t>157258071</t>
-  </si>
-  <si>
-    <t>157258051</t>
-  </si>
-  <si>
-    <t>AAAATAATAAAAGAAAAAAA</t>
-  </si>
-  <si>
-    <t>23% (32)</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 0, Doench 2016: 14%, Moreno-Mateos: 23%</t>
   </si>
 </sst>
 </file>
@@ -425,7 +305,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1021,301 +901,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" t="s">
-        <v>86</v>
-      </c>
-      <c r="I11" t="s">
-        <v>86</v>
-      </c>
-      <c r="J11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" t="s">
-        <v>87</v>
-      </c>
-      <c r="L11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" t="s">
-        <v>3</v>
-      </c>
-      <c r="N11" t="s">
-        <v>88</v>
-      </c>
-      <c r="O11" t="s">
-        <v>89</v>
-      </c>
-      <c r="P11" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>91</v>
-      </c>
-      <c r="R11" t="s">
-        <v>92</v>
-      </c>
-      <c r="S11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" t="s">
-        <v>94</v>
-      </c>
-      <c r="H12" t="s">
-        <v>86</v>
-      </c>
-      <c r="I12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" t="s">
-        <v>96</v>
-      </c>
-      <c r="L12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" t="s">
-        <v>97</v>
-      </c>
-      <c r="O12" t="s">
-        <v>98</v>
-      </c>
-      <c r="P12" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>50</v>
-      </c>
-      <c r="R12" t="s">
-        <v>100</v>
-      </c>
-      <c r="S12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" t="s">
-        <v>102</v>
-      </c>
-      <c r="H13" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" t="s">
-        <v>86</v>
-      </c>
-      <c r="J13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" t="s">
-        <v>104</v>
-      </c>
-      <c r="L13" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" t="s">
-        <v>3</v>
-      </c>
-      <c r="N13" t="s">
-        <v>105</v>
-      </c>
-      <c r="O13" t="s">
-        <v>106</v>
-      </c>
-      <c r="P13" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>91</v>
-      </c>
-      <c r="R13" t="s">
-        <v>108</v>
-      </c>
-      <c r="S13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>110</v>
-      </c>
-      <c r="G14" t="s">
-        <v>109</v>
-      </c>
-      <c r="H14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I14" t="s">
-        <v>86</v>
-      </c>
-      <c r="J14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" t="s">
-        <v>111</v>
-      </c>
-      <c r="L14" t="s">
-        <v>46</v>
-      </c>
-      <c r="M14" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" t="s">
-        <v>112</v>
-      </c>
-      <c r="O14" t="s">
-        <v>113</v>
-      </c>
-      <c r="P14" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>50</v>
-      </c>
-      <c r="R14" t="s">
-        <v>114</v>
-      </c>
-      <c r="S14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C15" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" t="s">
-        <v>117</v>
-      </c>
-      <c r="G15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I15" t="s">
-        <v>86</v>
-      </c>
-      <c r="J15" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" t="s">
-        <v>118</v>
-      </c>
-      <c r="L15" t="s">
-        <v>37</v>
-      </c>
-      <c r="M15" t="s">
-        <v>3</v>
-      </c>
-      <c r="N15" t="s">
-        <v>30</v>
-      </c>
-      <c r="O15" t="s">
-        <v>119</v>
-      </c>
-      <c r="P15" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>121</v>
-      </c>
-      <c r="R15" t="s">
-        <v>122</v>
-      </c>
-      <c r="S15" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
